--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/29,07,25 Ост КИ филиалы/дв 29,07,25 днрсч ост ки.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/29,07,25 Ост КИ филиалы/дв 29,07,25 днрсч ост ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\29,07,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\29,07,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8FDA9-E717-44D8-B50D-168051B2CFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711404D-4DFF-4837-A580-62030F0BEE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="171">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -575,6 +575,12 @@
   <si>
     <t>04,08,</t>
   </si>
+  <si>
+    <t>600 Обжора (дозаказ)</t>
+  </si>
+  <si>
+    <t>350 Обжора (дозаказ)</t>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +633,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +686,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -716,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -740,6 +752,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1458,7 +1472,7 @@
       </c>
       <c r="T5" s="3">
         <f t="shared" si="0"/>
-        <v>5396</v>
+        <v>6346</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" ref="U5" si="1">SUM(U6:U500)</f>
@@ -1466,7 +1480,7 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -1514,7 +1528,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="3">
         <f>SUM(AK6:AK500)</f>
-        <v>3169.28</v>
+        <v>3421.28</v>
       </c>
       <c r="AL5" s="3">
         <f>SUM(AL6:AL500)</f>
@@ -1755,7 +1769,7 @@
         <v>43</v>
       </c>
       <c r="AK7" s="9">
-        <f t="shared" ref="AK7:AL70" si="9">G7*T7</f>
+        <f t="shared" ref="AK7:AK70" si="9">G7*T7</f>
         <v>0</v>
       </c>
       <c r="AL7" s="9">
@@ -2940,15 +2954,19 @@
         <f t="shared" si="6"/>
         <v>261</v>
       </c>
-      <c r="T17" s="4">
-        <f t="shared" si="7"/>
-        <v>161</v>
+      <c r="T17" s="23">
+        <f>S17-U17+350</f>
+        <v>511</v>
       </c>
       <c r="U17" s="4">
         <v>100</v>
       </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="9"/>
+      <c r="V17" s="23">
+        <v>610</v>
+      </c>
+      <c r="W17" s="24" t="s">
+        <v>170</v>
+      </c>
       <c r="X17" s="9">
         <f t="shared" si="8"/>
         <v>12.995495495495495</v>
@@ -2992,7 +3010,7 @@
       </c>
       <c r="AK17" s="9">
         <f t="shared" si="9"/>
-        <v>19.32</v>
+        <v>61.32</v>
       </c>
       <c r="AL17" s="9">
         <f t="shared" si="10"/>
@@ -7045,15 +7063,19 @@
         <f t="shared" si="6"/>
         <v>339</v>
       </c>
-      <c r="T51" s="4">
-        <f t="shared" si="7"/>
-        <v>239</v>
+      <c r="T51" s="23">
+        <f>S51-U51+600</f>
+        <v>839</v>
       </c>
       <c r="U51" s="4">
         <v>100</v>
       </c>
-      <c r="V51" s="4"/>
-      <c r="W51" s="9"/>
+      <c r="V51" s="23">
+        <v>940</v>
+      </c>
+      <c r="W51" s="24" t="s">
+        <v>169</v>
+      </c>
       <c r="X51" s="9">
         <f t="shared" si="8"/>
         <v>12.996661101836395</v>
@@ -7097,7 +7119,7 @@
       </c>
       <c r="AK51" s="9">
         <f t="shared" si="9"/>
-        <v>83.649999999999991</v>
+        <v>293.64999999999998</v>
       </c>
       <c r="AL51" s="9">
         <f t="shared" si="10"/>
@@ -9526,7 +9548,7 @@
         <v>116</v>
       </c>
       <c r="AK71" s="9">
-        <f t="shared" ref="AK71:AL109" si="24">G71*T71</f>
+        <f t="shared" ref="AK71:AK109" si="24">G71*T71</f>
         <v>7.5900000000000007</v>
       </c>
       <c r="AL71" s="9">

--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/29,07,25 Ост КИ филиалы/дв 29,07,25 днрсч ост ки.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/29,07,25 Ост КИ филиалы/дв 29,07,25 днрсч ост ки.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\29,07,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\29,07,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711404D-4DFF-4837-A580-62030F0BEE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A9BA49-DC08-486E-8971-3C848E196E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AK$109</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -749,7 +741,7 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1063,7 +1055,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
